--- a/file/5407055-B1/data_input.xlsx
+++ b/file/5407055-B1/data_input.xlsx
@@ -1021,7 +1021,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="2"/>
@@ -1045,7 +1045,7 @@
         <v>793</v>
       </c>
       <c r="C2" s="3">
-        <v>10000</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1056,7 +1056,7 @@
         <v>32</v>
       </c>
       <c r="C3" s="3">
-        <v>9800</v>
+        <v>9.8</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1067,7 +1067,7 @@
         <v>17</v>
       </c>
       <c r="C4" s="3">
-        <v>9600</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1078,7 +1078,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3">
-        <v>9500</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1089,7 +1089,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="5">
-        <v>8600</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1100,7 +1100,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="5">
-        <v>8400</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1111,7 +1111,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="7">
-        <v>8200</v>
+        <v>8.2</v>
       </c>
     </row>
   </sheetData>
